--- a/documents/Forms.xlsx
+++ b/documents/Forms.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +118,42 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Test Preparation</t>
+  </si>
+  <si>
+    <t>(Please Mention Score)</t>
+  </si>
+  <si>
+    <t>TOFFEL</t>
+  </si>
+  <si>
+    <t>IELTS</t>
+  </si>
+  <si>
+    <t>GMAT</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Started Coaching</t>
+  </si>
+  <si>
+    <t>Looking for Coaching</t>
+  </si>
+  <si>
+    <t>Looking for Waier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular or Fast Track     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Experience      </t>
   </si>
 </sst>
 </file>
@@ -127,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +186,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -305,11 +346,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -329,24 +441,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,6 +498,30 @@
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaRange="Sheet2!$F$3:$F$6" noThreeD="1" sel="3" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,6 +643,372 @@
               <a:avLst/>
             </a:prstGeom>
           </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Option Button 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Option Button 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>No</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Option Button 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Option Button 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>No</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Option Button 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Yes</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>438150</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Option Button 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>No</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -788,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L50"/>
+  <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -918,9 +1435,9 @@
       <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -948,9 +1465,9 @@
       <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -972,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
@@ -987,7 +1504,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="6"/>
       <c r="G14" s="10"/>
       <c r="H14" s="6"/>
@@ -1000,15 +1517,15 @@
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -1036,9 +1553,9 @@
       <c r="H17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -1051,9 +1568,9 @@
       <c r="H18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -1066,9 +1583,9 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -1079,9 +1596,9 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -1094,9 +1611,9 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -1112,51 +1629,51 @@
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="26" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="25" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+    </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
-      <c r="C28" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -1169,157 +1686,161 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
-      <c r="C30" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13"/>
-    </row>
-    <row r="39" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="37" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
+      <c r="C39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7"/>
+    </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
-      <c r="C41" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="C41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="G41" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="22"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -1327,12 +1848,12 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -1340,16 +1861,12 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
-      <c r="C43" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="21"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="19"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -1357,12 +1874,12 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -1370,12 +1887,12 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -1383,12 +1900,12 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -1396,80 +1913,287 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="13"/>
+    <row r="48" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="50" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="5"/>
+      <c r="C52" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
+      <c r="C54" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="28"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+      <c r="C55" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="28"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="5"/>
+      <c r="C56" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="28"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+      <c r="C57" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+      <c r="C58" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
+      <c r="C60" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="5"/>
+      <c r="C62" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="36"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+  <mergeCells count="35">
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:J63"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="I17:K21"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I15:K15"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G41:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1544,6 +2268,138 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId7" name="Option Button 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId8" name="Option Button 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId9" name="Option Button 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId10" name="Option Button 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId11" name="Option Button 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId12" name="Option Button 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
